--- a/数据整理/stocks/A股/深证主板/000552-靖远煤电.xlsx
+++ b/数据整理/stocks/A股/深证主板/000552-靖远煤电.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,17 +557,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -576,13 +597,483 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6997</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2663</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006857</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006858</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000552-靖远煤电.xlsx
+++ b/数据整理/stocks/A股/深证主板/000552-靖远煤电.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1020,7 +1021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,17 +1032,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1051,14 +1072,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.11</v>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8551</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1067,13 +1110,385 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013596</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010991</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000552-靖远煤电.xlsx
+++ b/数据整理/stocks/A股/深证主板/000552-靖远煤电.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,46 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161724</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>招商中证煤炭等权指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>27.69</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9027</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -542,6 +532,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8551</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013596</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010991</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1015,13 +1403,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1082,414 +1470,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26.31</t>
+          <t>27.69</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>93.94</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8551</t>
+          <t>0.9027</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007831</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博道伍佰智航股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.82</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1191</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
         <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501059</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.38</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1050</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>013596</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商中证煤炭等权指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0881</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007832</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博道伍佰智航股票C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0734</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009439</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.38</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0311</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>080007</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>长盛同鑫行业配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>85.34</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>080015</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>长盛中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>82.34</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010991</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>长盛同鑫行业配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>85.34</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000552-靖远煤电.xlsx
+++ b/数据整理/stocks/A股/深证主板/000552-靖远煤电.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>1.28</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.9</v>
       </c>
     </row>
@@ -532,6 +549,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003132</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>德邦新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -929,7 +1078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1403,7 +1552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
